--- a/Báo cáo/congviec.xlsx
+++ b/Báo cáo/congviec.xlsx
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +957,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3"/>
     </row>

--- a/Báo cáo/congviec.xlsx
+++ b/Báo cáo/congviec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>BẢNG MÔ TẢ CÔNG VIỆC</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Soạn file word giới thiệu engine cocos2-x</t>
+  </si>
+  <si>
+    <t>Soạn file phân chia công việc(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 phút </t>
+  </si>
+  <si>
+    <t>Úp Source Code lên Github</t>
+  </si>
+  <si>
+    <t>Thảo luận chức năng thứ 2</t>
   </si>
 </sst>
 </file>
@@ -135,14 +147,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -152,14 +164,14 @@
       <i/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -168,7 +180,7 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -176,7 +188,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,13 +249,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,6 +263,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,49 +591,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
@@ -684,7 +702,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -695,16 +713,16 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
@@ -712,7 +730,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -726,7 +744,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -740,7 +758,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -754,7 +772,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -767,77 +785,77 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -850,7 +868,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -859,12 +877,12 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -878,7 +896,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -890,10 +908,10 @@
       <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -906,7 +924,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -920,7 +938,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -934,43 +952,80 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>25</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -990,7 +1045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1002,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Báo cáo/congviec.xlsx
+++ b/Báo cáo/congviec.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>BẢNG MÔ TẢ CÔNG VIỆC</t>
   </si>
@@ -137,58 +137,63 @@
   </si>
   <si>
     <t>Thảo luận chức năng thứ 2</t>
+  </si>
+  <si>
+    <t>Tìm-Hiểu-Công-Cụ-Unit-Test</t>
+  </si>
+  <si>
+    <t>Các chức năng của game</t>
+  </si>
+  <si>
+    <t>Ngôn Ngữ C++</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cài đặt game hứng bia</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng game hứng bia</t>
+  </si>
+  <si>
+    <t>Video hướng dẫn cài đặt game hứng bia</t>
+  </si>
+  <si>
+    <t>Video hướng dẫn sử dụng game hứng bia</t>
+  </si>
+  <si>
+    <t>Source code 2 chức năng</t>
+  </si>
+  <si>
+    <t>Công cụ quản lí Trello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,65 +233,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,67 +583,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -660,18 +657,20 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -680,32 +679,36 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -713,319 +716,490 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>28</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1045,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,7 +1231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
